--- a/_files/student_grades_g4.xlsx
+++ b/_files/student_grades_g4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\PROGRAMMING\___CSS Projects\0001- Website Moni\0026_Monica (Grade Displayer - various excel files)\_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CBF6FD-499F-4D35-8B85-993BF1922DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F62C0F-A182-4EF2-8320-8AC7AE1D7CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{4EDCD29F-F752-4477-86EA-5BFA1BD71943}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4EDCD29F-F752-4477-86EA-5BFA1BD71943}"/>
   </bookViews>
   <sheets>
     <sheet name="Grado 4" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,11 +728,11 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
@@ -741,7 +741,7 @@
     <col min="15" max="15" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61.2" customHeight="1">
+    <row r="1" spans="1:15" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -788,13 +788,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="72" customHeight="1">
+    <row r="2" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="18">
         <f ca="1">TODAY()</f>
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>49</v>
@@ -836,7 +836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.399999999999999" customHeight="1">
+    <row r="3" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -871,7 +871,7 @@
       </c>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" ht="20.399999999999999" customHeight="1">
+    <row r="4" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -906,7 +906,7 @@
       </c>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" ht="19.2" customHeight="1">
+    <row r="5" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -939,7 +939,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" ht="16.8" customHeight="1">
+    <row r="6" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -972,7 +972,7 @@
       </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15" ht="17.399999999999999" customHeight="1">
+    <row r="9" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" ht="19.2" customHeight="1">
+    <row r="10" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" ht="19.8" customHeight="1">
+    <row r="12" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>

--- a/_files/student_grades_g4.xlsx
+++ b/_files/student_grades_g4.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\PROGRAMMING\___CSS Projects\0001- Website Moni\0026_Monica (Grade Displayer - various excel files)\_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F62C0F-A182-4EF2-8320-8AC7AE1D7CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4EDCD29F-F752-4477-86EA-5BFA1BD71943}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Grado 4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="73">
   <si>
     <t>firstName</t>
   </si>
@@ -201,12 +200,63 @@
   </si>
   <si>
     <t>&lt;span&gt;Taller 1 - &lt;/span&gt; Entregado en el colegio</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Este taller está incompleto.</t>
+  </si>
+  <si>
+    <t>María debes repasar la parte escritura de fracciones mixta e impropias a partir del grafico ya que cometiste algunos errores en esta parte.</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>Esta nota fue acordada con la madre ya que el estudinate no tenía el taller le fue asignada la nota que tenía acumulada del trabajo en el colegio sobre el tema que repasaba el taller.</t>
+  </si>
+  <si>
+    <t>Juan recuerda que la forma de nombrar las fracciones tiene unas reglas según su denominador, es impotante que repases ese punto, también tienes dos errores en el punto 5 en la escritura de la fracción a aprtir d ela gráfica, yo noto que entiendes el concepto pero debes tener más cuidado al desarrollar los puntos.</t>
+  </si>
+  <si>
+    <t>Juan estas confundiendo los conceptos de fracciones propias e impropias, los estas trocando, así mismo cuando coloreas las graficas de fracciones impropias, no estas tomando el número de cuadros que te indica el numerador. Es importante que repases de nuevo este capítulo del tema de fracciones.</t>
+  </si>
+  <si>
+    <t>Jose te faltó colorear las graficas del punto 4, está incompleto.</t>
+  </si>
+  <si>
+    <t>Jose en el punto 3 estas escribiendo bien el número entero pero mal la fracción.</t>
+  </si>
+  <si>
+    <t>Matías estas trocando los conceptos de fracción propia e impropia, es importante que repases este capítulo sobre el tema de fracciones.</t>
+  </si>
+  <si>
+    <t>Matías debes revisar la parte de la escritura de la racción mixta a partir del grafico ya que lo estas haciendo mal, así mismo la escritura de la fracción impropia.</t>
+  </si>
+  <si>
+    <t>Valery en el punto de redondeo a las centenas y a las unidades de mil más cercanas comestiste algunos errores ya que redondeaste la cifra del cuadrito y no la cifra que estaba al lado izquierdo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -305,7 +355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCC0DA"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -364,9 +414,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -403,6 +450,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,24 +775,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9C651C-DE2B-48EF-855C-478E0DB36FE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N2" sqref="N2"/>
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="14" width="12.77734375" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -788,18 +839,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43958</v>
-      </c>
-      <c r="C2" s="17" t="s">
+        <v>43959</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -823,20 +874,20 @@
       <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>52</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="21" t="s">
         <v>53</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -849,29 +900,41 @@
       <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="J3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="L3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -884,29 +947,41 @@
       <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="H4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="J4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="L4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -919,27 +994,41 @@
       <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="J5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="L5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -949,30 +1038,44 @@
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="D6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="J6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="L6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="N6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="O6" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -982,32 +1085,44 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5"/>
+      <c r="D7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="F7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="H7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="J7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="13" t="s">
+      <c r="K7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1020,29 +1135,41 @@
       <c r="D8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="F8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="J8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="L8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="N8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1052,30 +1179,34 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="15" t="s">
+      <c r="K9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="10" t="s">
+      <c r="M9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="22" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1085,32 +1216,44 @@
       <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="J10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="L10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1123,27 +1266,41 @@
       <c r="D11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="F11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="J11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="L11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1156,95 +1313,133 @@
       <c r="D12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="H12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="J12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="L12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="N12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="5"/>
+      <c r="O12" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="23" t="s">
+        <v>72</v>
+      </c>
       <c r="F13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="J13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="L13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="N13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="F14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="H14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="J14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="L14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="5"/>
+      <c r="M14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
